--- a/xlsx/country_comparison/gcs_field_contains_positive.xlsx
+++ b/xlsx/country_comparison/gcs_field_contains_positive.xlsx
@@ -422,7 +422,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.280680671201531</v>
+        <v>0.280680672156159</v>
       </c>
       <c r="C2" t="n">
         <v>0.217576357526171</v>
@@ -445,7 +445,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.260674829365707</v>
+        <v>0.260674829904256</v>
       </c>
       <c r="C3" t="n">
         <v>0.211869740185306</v>
@@ -468,7 +468,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.162569072311265</v>
+        <v>0.162569072535453</v>
       </c>
       <c r="C4" t="n">
         <v>0.082584463593323</v>
@@ -491,7 +491,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.158964834179867</v>
+        <v>0.158964834855115</v>
       </c>
       <c r="C5" t="n">
         <v>0.0339091245698523</v>
@@ -514,7 +514,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.151448931294041</v>
+        <v>0.15144893197704</v>
       </c>
       <c r="C6" t="n">
         <v>0.0358911610162706</v>
@@ -537,7 +537,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.125097631083019</v>
+        <v>0.1250976313629</v>
       </c>
       <c r="C7" t="n">
         <v>0.0687271561965568</v>
@@ -560,7 +560,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0786685504129818</v>
+        <v>0.0786685503107469</v>
       </c>
       <c r="C8" t="n">
         <v>0.0287555934006675</v>
@@ -583,7 +583,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0773970753560404</v>
+        <v>0.0773970752504831</v>
       </c>
       <c r="C9" t="n">
         <v>0.0396608210923812</v>
@@ -606,7 +606,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0616201473532504</v>
+        <v>0.0616201472692552</v>
       </c>
       <c r="C10" t="n">
         <v>0.0421173302019325</v>
@@ -629,7 +629,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0283444977729173</v>
+        <v>0.0283444977345133</v>
       </c>
       <c r="C11" t="n">
         <v>0.0394429131964936</v>
